--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>CustomerID</t>
   </si>
@@ -42,9 +42,6 @@
     <t>WAL-MART 3795 FROZEN</t>
   </si>
   <si>
-    <t>Massage</t>
-  </si>
-  <si>
     <t>712450-SHOP RITE 130</t>
   </si>
   <si>
@@ -66,34 +63,19 @@
     <t>InvoiceNumber</t>
   </si>
   <si>
-    <t>350971924</t>
-  </si>
-  <si>
-    <t>350971925</t>
-  </si>
-  <si>
-    <t>350971927</t>
-  </si>
-  <si>
-    <t>350971928</t>
-  </si>
-  <si>
-    <t>350971929</t>
-  </si>
-  <si>
-    <t>350971930</t>
-  </si>
-  <si>
-    <t>350971931</t>
-  </si>
-  <si>
-    <t>350971932</t>
-  </si>
-  <si>
-    <t>350971933</t>
-  </si>
-  <si>
-    <t>350971934</t>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>350971982</t>
+  </si>
+  <si>
+    <t>CustomerSelectValue</t>
+  </si>
+  <si>
+    <t>350971983</t>
+  </si>
+  <si>
+    <t>350971974</t>
   </si>
 </sst>
 </file>
@@ -101,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +121,11 @@
       <color rgb="FF313131"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
     </font>
   </fonts>
   <fills count="3">
@@ -182,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
@@ -195,6 +182,9 @@
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -475,87 +465,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="38.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="21.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="14.78125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.609375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row ht="24" r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row ht="24" r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="8"/>
-    </row>
-    <row ht="36" r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+    </row>
+    <row ht="36" r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9"/>
-    </row>
-    <row ht="24" r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="8"/>
+    </row>
+    <row ht="24" r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="8"/>
-    </row>
-    <row ht="24" r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="8"/>
+    </row>
+    <row ht="24" r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="8"/>
-    </row>
-    <row ht="24" r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="8"/>
+    </row>
+    <row ht="24" r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
     </row>
   </sheetData>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>CustomerID</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>350971974</t>
+  </si>
+  <si>
+    <t>350971984</t>
+  </si>
+  <si>
+    <t>350971985</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>CustomerID</t>
   </si>
@@ -66,22 +66,64 @@
     <t>Message</t>
   </si>
   <si>
-    <t>350971982</t>
-  </si>
-  <si>
     <t>CustomerSelectValue</t>
   </si>
   <si>
-    <t>350971983</t>
-  </si>
-  <si>
-    <t>350971974</t>
-  </si>
-  <si>
-    <t>350971984</t>
-  </si>
-  <si>
-    <t>350971985</t>
+    <t>350972015</t>
+  </si>
+  <si>
+    <t>Successful Order place Message</t>
+  </si>
+  <si>
+    <t>350972016</t>
+  </si>
+  <si>
+    <t>Order 350972014 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972019</t>
+  </si>
+  <si>
+    <t>Order 350972017 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972020</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>350972023</t>
+  </si>
+  <si>
+    <t>350972024</t>
+  </si>
+  <si>
+    <t>350972025</t>
+  </si>
+  <si>
+    <t>350972026</t>
+  </si>
+  <si>
+    <t>350972027</t>
+  </si>
+  <si>
+    <t>350972028</t>
+  </si>
+  <si>
+    <t>350972029</t>
+  </si>
+  <si>
+    <t>350972030</t>
+  </si>
+  <si>
+    <t>350972031</t>
+  </si>
+  <si>
+    <t>350972032</t>
+  </si>
+  <si>
+    <t>350972033</t>
   </si>
 </sst>
 </file>
@@ -148,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,11 +213,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
@@ -191,6 +246,8 @@
     <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -471,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -482,10 +539,11 @@
     <col min="1" max="1" customWidth="true" width="38.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="21.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="14.78125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.609375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="38.34375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -496,10 +554,13 @@
         <v>13</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -507,13 +568,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row ht="24" r="3" spans="1:4">
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row ht="24" r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -521,9 +585,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row ht="36" r="4" spans="1:4">
+      <c r="D3" s="11"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row ht="36" r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -531,9 +596,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row ht="24" r="5" spans="1:4">
+      <c r="D4" s="11"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row ht="24" r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -541,9 +607,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row ht="24" r="6" spans="1:4">
+      <c r="D5" s="11"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row ht="24" r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -551,9 +618,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row ht="24" r="7" spans="1:4">
+      <c r="D6" s="11"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row ht="24" r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -561,9 +629,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="11"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
     </row>
   </sheetData>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>CustomerID</t>
   </si>
@@ -124,6 +124,51 @@
   </si>
   <si>
     <t>350972033</t>
+  </si>
+  <si>
+    <t>350972039</t>
+  </si>
+  <si>
+    <t>350972040</t>
+  </si>
+  <si>
+    <t>350972041</t>
+  </si>
+  <si>
+    <t>350972042</t>
+  </si>
+  <si>
+    <t>350972043</t>
+  </si>
+  <si>
+    <t>350972044</t>
+  </si>
+  <si>
+    <t>350972045</t>
+  </si>
+  <si>
+    <t>350972046</t>
+  </si>
+  <si>
+    <t>350972047</t>
+  </si>
+  <si>
+    <t>350972048</t>
+  </si>
+  <si>
+    <t>350972051</t>
+  </si>
+  <si>
+    <t>All selected order has been merged.</t>
+  </si>
+  <si>
+    <t>350972052</t>
+  </si>
+  <si>
+    <t>350972053</t>
+  </si>
+  <si>
+    <t>350972054</t>
   </si>
 </sst>
 </file>
@@ -539,8 +584,8 @@
     <col min="1" max="1" customWidth="true" width="38.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="21.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="14.78125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="38.34375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.609375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="33.25390625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -568,13 +613,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row ht="24" r="3" spans="1:5">

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>CustomerID</t>
   </si>
@@ -69,106 +69,43 @@
     <t>CustomerSelectValue</t>
   </si>
   <si>
-    <t>350972015</t>
-  </si>
-  <si>
     <t>Successful Order place Message</t>
   </si>
   <si>
-    <t>350972016</t>
-  </si>
-  <si>
-    <t>Order 350972014 Submitted Successfully.</t>
-  </si>
-  <si>
-    <t>350972019</t>
-  </si>
-  <si>
-    <t>Order 350972017 Submitted Successfully.</t>
-  </si>
-  <si>
-    <t>350972020</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>350972023</t>
-  </si>
-  <si>
-    <t>350972024</t>
-  </si>
-  <si>
-    <t>350972025</t>
-  </si>
-  <si>
-    <t>350972026</t>
-  </si>
-  <si>
-    <t>350972027</t>
-  </si>
-  <si>
-    <t>350972028</t>
-  </si>
-  <si>
-    <t>350972029</t>
-  </si>
-  <si>
-    <t>350972030</t>
-  </si>
-  <si>
-    <t>350972031</t>
-  </si>
-  <si>
-    <t>350972032</t>
-  </si>
-  <si>
-    <t>350972033</t>
-  </si>
-  <si>
-    <t>350972039</t>
-  </si>
-  <si>
-    <t>350972040</t>
-  </si>
-  <si>
-    <t>350972041</t>
-  </si>
-  <si>
-    <t>350972042</t>
-  </si>
-  <si>
-    <t>350972043</t>
-  </si>
-  <si>
-    <t>350972044</t>
-  </si>
-  <si>
-    <t>350972045</t>
-  </si>
-  <si>
-    <t>350972046</t>
-  </si>
-  <si>
-    <t>350972047</t>
-  </si>
-  <si>
-    <t>350972048</t>
-  </si>
-  <si>
-    <t>350972051</t>
+    <t>350972166</t>
+  </si>
+  <si>
+    <t>Order 350972166 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Pwd@013506</t>
+  </si>
+  <si>
+    <t>Search Items Value</t>
+  </si>
+  <si>
+    <t>3240</t>
+  </si>
+  <si>
+    <t>013506</t>
+  </si>
+  <si>
+    <t>350972170</t>
   </si>
   <si>
     <t>All selected order has been merged.</t>
   </si>
   <si>
-    <t>350972052</t>
-  </si>
-  <si>
-    <t>350972053</t>
-  </si>
-  <si>
-    <t>350972054</t>
+    <t>350972171</t>
+  </si>
+  <si>
+    <t>Order 350972171 Submitted Successfully.</t>
   </si>
 </sst>
 </file>
@@ -176,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +156,32 @@
       <b/>
       <sz val="9.8000000000000007"/>
       <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -272,10 +235,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
@@ -293,8 +257,21 @@
     </xf>
     <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" quotePrefix="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" quotePrefix="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" quotePrefix="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -573,115 +550,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.78125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.609375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="33.25390625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.78125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.609375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="33.25390625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>17</v>
+      <c r="G1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>46</v>
+      <c r="G2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row ht="24" r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+    <row ht="24" r="3" spans="1:8">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="11"/>
       <c r="E3" s="8"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
-    <row ht="36" r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+    <row ht="36" r="4" spans="1:8">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
-    <row ht="24" r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+    <row ht="24" r="5" spans="1:8">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="11"/>
       <c r="E5" s="8"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
-    <row ht="24" r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+    <row ht="24" r="6" spans="1:8">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="11"/>
       <c r="E6" s="8"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
-    <row ht="24" r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
+    <row ht="24" r="7" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
       <c r="E7" s="8"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:8">
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>CustomerID</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Successful Order place Message</t>
   </si>
   <si>
-    <t>350972166</t>
-  </si>
-  <si>
-    <t>Order 350972166 Submitted Successfully.</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -96,16 +90,118 @@
     <t>013506</t>
   </si>
   <si>
-    <t>350972170</t>
+    <t>350972171</t>
+  </si>
+  <si>
+    <t>Order 350972171 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>013507</t>
+  </si>
+  <si>
+    <t>Pwd@013507</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>350972172</t>
+  </si>
+  <si>
+    <t>Order 350972172 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972173</t>
+  </si>
+  <si>
+    <t>Order 350972173 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972174</t>
+  </si>
+  <si>
+    <t>350972175</t>
   </si>
   <si>
     <t>All selected order has been merged.</t>
   </si>
   <si>
-    <t>350972171</t>
-  </si>
-  <si>
-    <t>Order 350972171 Submitted Successfully.</t>
+    <t>350972176</t>
+  </si>
+  <si>
+    <t>350972177</t>
+  </si>
+  <si>
+    <t>350972178</t>
+  </si>
+  <si>
+    <t>350972180</t>
+  </si>
+  <si>
+    <t>350972182</t>
+  </si>
+  <si>
+    <t>350972187</t>
+  </si>
+  <si>
+    <t>350972188</t>
+  </si>
+  <si>
+    <t>350972189</t>
+  </si>
+  <si>
+    <t>350972190</t>
+  </si>
+  <si>
+    <t>350972191</t>
+  </si>
+  <si>
+    <t>350972192</t>
+  </si>
+  <si>
+    <t>350972193</t>
+  </si>
+  <si>
+    <t>350972194</t>
+  </si>
+  <si>
+    <t>350972195</t>
+  </si>
+  <si>
+    <t>350972196</t>
+  </si>
+  <si>
+    <t>Order 350972196 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972197</t>
+  </si>
+  <si>
+    <t>Order 350972197 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972198</t>
+  </si>
+  <si>
+    <t>Order 350972198 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972199</t>
+  </si>
+  <si>
+    <t>Order 350972199 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972200</t>
+  </si>
+  <si>
+    <t>Order 350972200 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972201</t>
+  </si>
+  <si>
+    <t>Order 350972202 Submitted Successfully.</t>
   </si>
 </sst>
 </file>
@@ -239,7 +335,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
@@ -269,6 +365,7 @@
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -553,7 +650,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -562,15 +659,15 @@
     <col min="4" max="4" customWidth="true" width="21.140625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="14.78125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="21.609375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="33.25390625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="38.34375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -588,15 +685,15 @@
         <v>16</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -605,21 +702,25 @@
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row ht="24" r="3" spans="1:8">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
@@ -629,7 +730,9 @@
       <c r="E3" s="8"/>
       <c r="F3" s="11"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="H3" s="17" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row ht="36" r="4" spans="1:8">
       <c r="A4" s="8"/>
@@ -693,8 +796,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink display="Pwd@013506" r:id="rId2" ref="B3"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>CustomerID</t>
   </si>
@@ -90,12 +90,6 @@
     <t>013506</t>
   </si>
   <si>
-    <t>350972171</t>
-  </si>
-  <si>
-    <t>Order 350972171 Submitted Successfully.</t>
-  </si>
-  <si>
     <t>013507</t>
   </si>
   <si>
@@ -105,103 +99,55 @@
     <t>1004</t>
   </si>
   <si>
-    <t>350972172</t>
-  </si>
-  <si>
-    <t>Order 350972172 Submitted Successfully.</t>
-  </si>
-  <si>
-    <t>350972173</t>
-  </si>
-  <si>
-    <t>Order 350972173 Submitted Successfully.</t>
-  </si>
-  <si>
-    <t>350972174</t>
-  </si>
-  <si>
-    <t>350972175</t>
-  </si>
-  <si>
-    <t>All selected order has been merged.</t>
-  </si>
-  <si>
-    <t>350972176</t>
-  </si>
-  <si>
-    <t>350972177</t>
-  </si>
-  <si>
-    <t>350972178</t>
-  </si>
-  <si>
-    <t>350972180</t>
-  </si>
-  <si>
-    <t>350972182</t>
-  </si>
-  <si>
-    <t>350972187</t>
-  </si>
-  <si>
-    <t>350972188</t>
-  </si>
-  <si>
-    <t>350972189</t>
-  </si>
-  <si>
-    <t>350972190</t>
-  </si>
-  <si>
-    <t>350972191</t>
-  </si>
-  <si>
-    <t>350972192</t>
-  </si>
-  <si>
-    <t>350972193</t>
-  </si>
-  <si>
-    <t>350972194</t>
-  </si>
-  <si>
-    <t>350972195</t>
-  </si>
-  <si>
-    <t>350972196</t>
-  </si>
-  <si>
-    <t>Order 350972196 Submitted Successfully.</t>
-  </si>
-  <si>
-    <t>350972197</t>
-  </si>
-  <si>
-    <t>Order 350972197 Submitted Successfully.</t>
-  </si>
-  <si>
-    <t>350972198</t>
-  </si>
-  <si>
-    <t>Order 350972198 Submitted Successfully.</t>
-  </si>
-  <si>
-    <t>350972199</t>
-  </si>
-  <si>
-    <t>Order 350972199 Submitted Successfully.</t>
-  </si>
-  <si>
-    <t>350972200</t>
-  </si>
-  <si>
-    <t>Order 350972200 Submitted Successfully.</t>
-  </si>
-  <si>
-    <t>350972201</t>
-  </si>
-  <si>
-    <t>Order 350972202 Submitted Successfully.</t>
+    <t>350972204</t>
+  </si>
+  <si>
+    <t>Order 350972205 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>Restricted Order place Message</t>
+  </si>
+  <si>
+    <t>350972207</t>
+  </si>
+  <si>
+    <t>Order 350972207 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972208</t>
+  </si>
+  <si>
+    <t>Order 350972209 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972210</t>
+  </si>
+  <si>
+    <t>350972211</t>
+  </si>
+  <si>
+    <t>Order 350972211 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972212</t>
+  </si>
+  <si>
+    <t>Order 350972213 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972214</t>
+  </si>
+  <si>
+    <t>Order 350972214 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972215</t>
+  </si>
+  <si>
+    <t>Sure want to delete Item?</t>
+  </si>
+  <si>
+    <t>Order 350972216 Submitted Successfully.</t>
   </si>
 </sst>
 </file>
@@ -335,7 +281,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
@@ -365,7 +311,13 @@
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -647,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -660,9 +612,10 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="14.78125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="21.609375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="38.34375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="38.34375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row ht="30" r="1" spans="1:9">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
@@ -684,11 +637,14 @@
       <c r="G1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="17" t="s">
         <v>20</v>
       </c>
+      <c r="I1" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
@@ -702,24 +658,27 @@
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>21</v>
       </c>
+      <c r="I2" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row ht="24" r="3" spans="1:8">
+    <row ht="24" r="3" spans="1:9">
       <c r="A3" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
@@ -727,14 +686,17 @@
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="F3" s="11"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="H3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="8"/>
     </row>
-    <row ht="36" r="4" spans="1:8">
+    <row ht="36" r="4" spans="1:9">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="4" t="s">
@@ -746,9 +708,10 @@
       <c r="E4" s="9"/>
       <c r="F4" s="11"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="8"/>
     </row>
-    <row ht="24" r="5" spans="1:8">
+    <row ht="24" r="5" spans="1:9">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
@@ -760,9 +723,10 @@
       <c r="E5" s="8"/>
       <c r="F5" s="11"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="8"/>
     </row>
-    <row ht="24" r="6" spans="1:8">
+    <row ht="24" r="6" spans="1:9">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="4" t="s">
@@ -774,9 +738,10 @@
       <c r="E6" s="8"/>
       <c r="F6" s="11"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="8"/>
     </row>
-    <row ht="24" r="7" spans="1:8">
+    <row ht="24" r="7" spans="1:9">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="4" t="s">
@@ -788,9 +753,10 @@
       <c r="E7" s="8"/>
       <c r="F7" s="11"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="C8" s="1"/>
     </row>
   </sheetData>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>CustomerID</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>Order 350972216 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972217</t>
+  </si>
+  <si>
+    <t>Order 350972217 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972218</t>
+  </si>
+  <si>
+    <t>Order 350972219 Submitted Successfully.</t>
   </si>
 </sst>
 </file>
@@ -612,7 +624,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="14.78125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="21.609375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="38.34375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="38.34375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="30.0234375" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:9">
@@ -658,13 +670,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>21</v>
@@ -687,7 +699,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="8"/>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>CustomerID</t>
   </si>
@@ -99,67 +99,88 @@
     <t>1004</t>
   </si>
   <si>
-    <t>350972204</t>
-  </si>
-  <si>
-    <t>Order 350972205 Submitted Successfully.</t>
-  </si>
-  <si>
     <t>Restricted Order place Message</t>
   </si>
   <si>
-    <t>350972207</t>
-  </si>
-  <si>
-    <t>Order 350972207 Submitted Successfully.</t>
-  </si>
-  <si>
-    <t>350972208</t>
-  </si>
-  <si>
-    <t>Order 350972209 Submitted Successfully.</t>
-  </si>
-  <si>
-    <t>350972210</t>
-  </si>
-  <si>
-    <t>350972211</t>
-  </si>
-  <si>
-    <t>Order 350972211 Submitted Successfully.</t>
-  </si>
-  <si>
-    <t>350972212</t>
-  </si>
-  <si>
-    <t>Order 350972213 Submitted Successfully.</t>
-  </si>
-  <si>
-    <t>350972214</t>
-  </si>
-  <si>
-    <t>Order 350972214 Submitted Successfully.</t>
-  </si>
-  <si>
-    <t>350972215</t>
-  </si>
-  <si>
     <t>Sure want to delete Item?</t>
   </si>
   <si>
-    <t>Order 350972216 Submitted Successfully.</t>
-  </si>
-  <si>
-    <t>350972217</t>
-  </si>
-  <si>
-    <t>Order 350972217 Submitted Successfully.</t>
-  </si>
-  <si>
-    <t>350972218</t>
-  </si>
-  <si>
-    <t>Order 350972219 Submitted Successfully.</t>
+    <t>350972224</t>
+  </si>
+  <si>
+    <t>350972225</t>
+  </si>
+  <si>
+    <t>Order 350972226 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>Wrong message</t>
+  </si>
+  <si>
+    <t>Username or Password Incorrect.</t>
+  </si>
+  <si>
+    <t>350972227</t>
+  </si>
+  <si>
+    <t>Order 350972227 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972228</t>
+  </si>
+  <si>
+    <t>Order 350972229 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972230</t>
+  </si>
+  <si>
+    <t>Order 350972230 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972231</t>
+  </si>
+  <si>
+    <t>Order 350972232 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972233</t>
+  </si>
+  <si>
+    <t>Order 350972233 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972234</t>
+  </si>
+  <si>
+    <t>Order 350972234 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972235</t>
+  </si>
+  <si>
+    <t>Order 350972236 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972237</t>
+  </si>
+  <si>
+    <t>Order 350972237 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972238</t>
+  </si>
+  <si>
+    <t>Order 350972239 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972261</t>
+  </si>
+  <si>
+    <t>Order 350972261 Submitted Successfully.</t>
+  </si>
+  <si>
+    <t>350972262</t>
   </si>
 </sst>
 </file>
@@ -293,7 +314,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
@@ -328,6 +349,9 @@
     </xf>
     <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -613,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -623,11 +647,12 @@
     <col min="4" max="4" customWidth="true" width="21.140625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="14.78125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="21.609375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="38.34375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="30.0234375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="38.34765625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="30.02734375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="30.8671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:9">
+    <row ht="30" r="1" spans="1:10">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
@@ -653,10 +678,13 @@
         <v>20</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
@@ -670,22 +698,25 @@
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row ht="24" r="3" spans="1:9">
+    <row ht="24" r="3" spans="1:10">
       <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
@@ -699,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="8"/>
@@ -707,8 +738,9 @@
         <v>25</v>
       </c>
       <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
-    <row ht="36" r="4" spans="1:9">
+    <row ht="36" r="4" spans="1:10">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="4" t="s">
@@ -722,8 +754,9 @@
       <c r="G4" s="8"/>
       <c r="H4" s="11"/>
       <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
-    <row ht="24" r="5" spans="1:9">
+    <row ht="24" r="5" spans="1:10">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
@@ -737,8 +770,9 @@
       <c r="G5" s="8"/>
       <c r="H5" s="11"/>
       <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
-    <row ht="24" r="6" spans="1:9">
+    <row ht="24" r="6" spans="1:10">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="4" t="s">
@@ -752,8 +786,9 @@
       <c r="G6" s="8"/>
       <c r="H6" s="11"/>
       <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
-    <row ht="24" r="7" spans="1:9">
+    <row ht="24" r="7" spans="1:10">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="4" t="s">
@@ -767,8 +802,9 @@
       <c r="G7" s="8"/>
       <c r="H7" s="11"/>
       <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="C8" s="1"/>
     </row>
   </sheetData>
